--- a/Data/dj_200/Gauge_ID.xlsx
+++ b/Data/dj_200/Gauge_ID.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
